--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H2">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I2">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J2">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>19.0235905843124</v>
+        <v>0.1363906666666667</v>
       </c>
       <c r="N2">
-        <v>19.0235905843124</v>
+        <v>0.409172</v>
       </c>
       <c r="O2">
-        <v>0.9798382975242389</v>
+        <v>0.006421450140662058</v>
       </c>
       <c r="P2">
-        <v>0.9798382975242389</v>
+        <v>0.006461395109718823</v>
       </c>
       <c r="Q2">
-        <v>100.8408629359</v>
+        <v>1.453471644189777</v>
       </c>
       <c r="R2">
-        <v>100.8408629359</v>
+        <v>13.081244797708</v>
       </c>
       <c r="S2">
-        <v>0.002763002058779666</v>
+        <v>3.359499488546185E-05</v>
       </c>
       <c r="T2">
-        <v>0.002763002058779666</v>
+        <v>3.413412989102577E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H3">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I3">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J3">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.391440071643157</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N3">
-        <v>0.391440071643157</v>
+        <v>62.002529</v>
       </c>
       <c r="O3">
-        <v>0.02016170247576111</v>
+        <v>0.9730532601655376</v>
       </c>
       <c r="P3">
-        <v>0.02016170247576111</v>
+        <v>0.9791061892573283</v>
       </c>
       <c r="Q3">
-        <v>2.074958165086752</v>
+        <v>220.2470300254034</v>
       </c>
       <c r="R3">
-        <v>2.074958165086752</v>
+        <v>1982.223270228631</v>
       </c>
       <c r="S3">
-        <v>5.685308033966999E-05</v>
+        <v>0.005090706706814494</v>
       </c>
       <c r="T3">
-        <v>5.685308033966999E-05</v>
+        <v>0.005172402751063347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1817.26560160239</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H4">
-        <v>1817.26560160239</v>
+        <v>31.970039</v>
       </c>
       <c r="I4">
-        <v>0.9667209753075875</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J4">
-        <v>0.9667209753075875</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.0235905843124</v>
+        <v>0.02296733333333334</v>
       </c>
       <c r="N4">
-        <v>19.0235905843124</v>
+        <v>0.068902</v>
       </c>
       <c r="O4">
-        <v>0.9798382975242389</v>
+        <v>0.001081331952313201</v>
       </c>
       <c r="P4">
-        <v>0.9798382975242389</v>
+        <v>0.001088058434716565</v>
       </c>
       <c r="Q4">
-        <v>34570.91678783804</v>
+        <v>0.2447555141308889</v>
       </c>
       <c r="R4">
-        <v>34570.91678783804</v>
+        <v>2.202799627178</v>
       </c>
       <c r="S4">
-        <v>0.9472302346263584</v>
+        <v>5.657186556260186E-06</v>
       </c>
       <c r="T4">
-        <v>0.9472302346263584</v>
+        <v>5.747973511754122E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1817.26560160239</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H5">
-        <v>1817.26560160239</v>
+        <v>31.970039</v>
       </c>
       <c r="I5">
-        <v>0.9667209753075875</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J5">
-        <v>0.9667209753075875</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.391440071643157</v>
+        <v>0.01906633333333333</v>
       </c>
       <c r="N5">
-        <v>0.391440071643157</v>
+        <v>0.057199</v>
       </c>
       <c r="O5">
-        <v>0.02016170247576111</v>
+        <v>0.0008976677939735101</v>
       </c>
       <c r="P5">
-        <v>0.02016170247576111</v>
+        <v>0.0009032517837994949</v>
       </c>
       <c r="Q5">
-        <v>711.3505772858844</v>
+        <v>0.2031838067512222</v>
       </c>
       <c r="R5">
-        <v>711.3505772858844</v>
+        <v>1.828654260761</v>
       </c>
       <c r="S5">
-        <v>0.01949074068122918</v>
+        <v>4.696313805572064E-06</v>
       </c>
       <c r="T5">
-        <v>0.01949074068122918</v>
+        <v>4.771680602868189E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.428296604429237</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H6">
-        <v>0.428296604429237</v>
+        <v>31.970039</v>
       </c>
       <c r="I6">
-        <v>0.0002278386333784526</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J6">
-        <v>0.0002278386333784526</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.0235905843124</v>
+        <v>0.3939205</v>
       </c>
       <c r="N6">
-        <v>19.0235905843124</v>
+        <v>0.787841</v>
       </c>
       <c r="O6">
-        <v>0.9798382975242389</v>
+        <v>0.01854628994751353</v>
       </c>
       <c r="P6">
-        <v>0.9798382975242389</v>
+        <v>0.01244110541443693</v>
       </c>
       <c r="Q6">
-        <v>8.147739251313006</v>
+        <v>4.197884582633166</v>
       </c>
       <c r="R6">
-        <v>8.147739251313006</v>
+        <v>25.187307495799</v>
       </c>
       <c r="S6">
-        <v>0.0002232450186397922</v>
+        <v>9.702831950459886E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002232450186397922</v>
+        <v>6.572362485085887E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.428296604429237</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H7">
-        <v>0.428296604429237</v>
+        <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.0002278386333784526</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J7">
-        <v>0.0002278386333784526</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.391440071643157</v>
+        <v>0.1363906666666667</v>
       </c>
       <c r="N7">
-        <v>0.391440071643157</v>
+        <v>0.409172</v>
       </c>
       <c r="O7">
-        <v>0.02016170247576111</v>
+        <v>0.006421450140662058</v>
       </c>
       <c r="P7">
-        <v>0.02016170247576111</v>
+        <v>0.006461395109718823</v>
       </c>
       <c r="Q7">
-        <v>0.1676524535223014</v>
+        <v>267.9996683707409</v>
       </c>
       <c r="R7">
-        <v>0.1676524535223014</v>
+        <v>2411.997015336668</v>
       </c>
       <c r="S7">
-        <v>4.593614738660375E-06</v>
+        <v>0.006194443162487281</v>
       </c>
       <c r="T7">
-        <v>4.593614738660375E-06</v>
+        <v>0.00629385205242041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.289213345465911</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H8">
-        <v>0.289213345465911</v>
+        <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.0001538512626631165</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J8">
-        <v>0.0001538512626631165</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.0235905843124</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N8">
-        <v>19.0235905843124</v>
+        <v>62.002529</v>
       </c>
       <c r="O8">
-        <v>0.9798382975242389</v>
+        <v>0.9730532601655376</v>
       </c>
       <c r="P8">
-        <v>0.9798382975242389</v>
+        <v>0.9791061892573283</v>
       </c>
       <c r="Q8">
-        <v>5.501876275662794</v>
+        <v>40610.44550982776</v>
       </c>
       <c r="R8">
-        <v>5.501876275662794</v>
+        <v>365494.0095884498</v>
       </c>
       <c r="S8">
-        <v>0.0001507493592797826</v>
+        <v>0.9386545067134832</v>
       </c>
       <c r="T8">
-        <v>0.0001507493592797826</v>
+        <v>0.9537181048603179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.289213345465911</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H9">
-        <v>0.289213345465911</v>
+        <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.0001538512626631165</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J9">
-        <v>0.0001538512626631165</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.391440071643157</v>
+        <v>0.02296733333333334</v>
       </c>
       <c r="N9">
-        <v>0.391440071643157</v>
+        <v>0.068902</v>
       </c>
       <c r="O9">
-        <v>0.02016170247576111</v>
+        <v>0.001081331952313201</v>
       </c>
       <c r="P9">
-        <v>0.02016170247576111</v>
+        <v>0.001088058434716565</v>
       </c>
       <c r="Q9">
-        <v>0.1132096926693333</v>
+        <v>45.12946425972645</v>
       </c>
       <c r="R9">
-        <v>0.1132096926693333</v>
+        <v>406.165178337538</v>
       </c>
       <c r="S9">
-        <v>3.101903383333928E-06</v>
+        <v>0.001043105400129282</v>
       </c>
       <c r="T9">
-        <v>3.101903383333928E-06</v>
+        <v>0.001059845234072398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.5403777927003</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H10">
-        <v>56.5403777927003</v>
+        <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.03007747965725144</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J10">
-        <v>0.03007747965725144</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>19.0235905843124</v>
+        <v>0.01906633333333333</v>
       </c>
       <c r="N10">
-        <v>19.0235905843124</v>
+        <v>0.057199</v>
       </c>
       <c r="O10">
-        <v>0.9798382975242389</v>
+        <v>0.0008976677939735101</v>
       </c>
       <c r="P10">
-        <v>0.9798382975242389</v>
+        <v>0.0009032517837994949</v>
       </c>
       <c r="Q10">
-        <v>1075.600998610679</v>
+        <v>37.46422783362011</v>
       </c>
       <c r="R10">
-        <v>1075.600998610679</v>
+        <v>337.178050502581</v>
       </c>
       <c r="S10">
-        <v>0.02947106646118118</v>
+        <v>0.0008659340190704886</v>
       </c>
       <c r="T10">
-        <v>0.02947106646118118</v>
+        <v>0.0008798305933602373</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.5403777927003</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H11">
-        <v>56.5403777927003</v>
+        <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.03007747965725144</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J11">
-        <v>0.03007747965725144</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.391440071643157</v>
+        <v>0.3939205</v>
       </c>
       <c r="N11">
-        <v>0.391440071643157</v>
+        <v>0.787841</v>
       </c>
       <c r="O11">
-        <v>0.02016170247576111</v>
+        <v>0.01854628994751353</v>
       </c>
       <c r="P11">
-        <v>0.02016170247576111</v>
+        <v>0.01244110541443693</v>
       </c>
       <c r="Q11">
-        <v>22.13216953390577</v>
+        <v>774.0307012535299</v>
       </c>
       <c r="R11">
-        <v>22.13216953390577</v>
+        <v>4644.184207521179</v>
       </c>
       <c r="S11">
-        <v>0.0006064131960702608</v>
+        <v>0.01789065342537053</v>
       </c>
       <c r="T11">
-        <v>0.0006064131960702608</v>
+        <v>0.01211850931840631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.166748</v>
+      </c>
+      <c r="H12">
+        <v>3.500244</v>
+      </c>
+      <c r="I12">
+        <v>0.000572791570766042</v>
+      </c>
+      <c r="J12">
+        <v>0.0005783858930568872</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1363906666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.409172</v>
+      </c>
+      <c r="O12">
+        <v>0.006421450140662058</v>
+      </c>
+      <c r="P12">
+        <v>0.006461395109718823</v>
+      </c>
+      <c r="Q12">
+        <v>0.159133537552</v>
+      </c>
+      <c r="R12">
+        <v>1.432201837968</v>
+      </c>
+      <c r="S12">
+        <v>3.678152512665641E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.737179780928125E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.166748</v>
+      </c>
+      <c r="H13">
+        <v>3.500244</v>
+      </c>
+      <c r="I13">
+        <v>0.000572791570766042</v>
+      </c>
+      <c r="J13">
+        <v>0.0005783858930568872</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.66750966666667</v>
+      </c>
+      <c r="N13">
+        <v>62.002529</v>
+      </c>
+      <c r="O13">
+        <v>0.9730532601655376</v>
+      </c>
+      <c r="P13">
+        <v>0.9791061892573283</v>
+      </c>
+      <c r="Q13">
+        <v>24.113775568564</v>
+      </c>
+      <c r="R13">
+        <v>217.023980117076</v>
+      </c>
+      <c r="S13">
+        <v>0.0005573567053292364</v>
+      </c>
+      <c r="T13">
+        <v>0.0005663012076711254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.166748</v>
+      </c>
+      <c r="H14">
+        <v>3.500244</v>
+      </c>
+      <c r="I14">
+        <v>0.000572791570766042</v>
+      </c>
+      <c r="J14">
+        <v>0.0005783858930568872</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02296733333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.068902</v>
+      </c>
+      <c r="O14">
+        <v>0.001081331952313201</v>
+      </c>
+      <c r="P14">
+        <v>0.001088058434716565</v>
+      </c>
+      <c r="Q14">
+        <v>0.026797090232</v>
+      </c>
+      <c r="R14">
+        <v>0.241173812088</v>
+      </c>
+      <c r="S14">
+        <v>6.193778274849893E-07</v>
+      </c>
+      <c r="T14">
+        <v>6.293176494616193E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.166748</v>
+      </c>
+      <c r="H15">
+        <v>3.500244</v>
+      </c>
+      <c r="I15">
+        <v>0.000572791570766042</v>
+      </c>
+      <c r="J15">
+        <v>0.0005783858930568872</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01906633333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.057199</v>
+      </c>
+      <c r="O15">
+        <v>0.0008976677939735101</v>
+      </c>
+      <c r="P15">
+        <v>0.0009032517837994949</v>
+      </c>
+      <c r="Q15">
+        <v>0.022245606284</v>
+      </c>
+      <c r="R15">
+        <v>0.200210456556</v>
+      </c>
+      <c r="S15">
+        <v>5.141765457361746E-07</v>
+      </c>
+      <c r="T15">
+        <v>5.224280896280973E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.166748</v>
+      </c>
+      <c r="H16">
+        <v>3.500244</v>
+      </c>
+      <c r="I16">
+        <v>0.000572791570766042</v>
+      </c>
+      <c r="J16">
+        <v>0.0005783858930568872</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3939205</v>
+      </c>
+      <c r="N16">
+        <v>0.787841</v>
+      </c>
+      <c r="O16">
+        <v>0.01854628994751353</v>
+      </c>
+      <c r="P16">
+        <v>0.01244110541443693</v>
+      </c>
+      <c r="Q16">
+        <v>0.459605955534</v>
+      </c>
+      <c r="R16">
+        <v>2.757635733204</v>
+      </c>
+      <c r="S16">
+        <v>1.062315855091873E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.195759865743977E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.079543</v>
+      </c>
+      <c r="H17">
+        <v>3.238629</v>
+      </c>
+      <c r="I17">
+        <v>0.0005299800219751696</v>
+      </c>
+      <c r="J17">
+        <v>0.0005351562138082184</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1363906666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.409172</v>
+      </c>
+      <c r="O17">
+        <v>0.006421450140662058</v>
+      </c>
+      <c r="P17">
+        <v>0.006461395109718823</v>
+      </c>
+      <c r="Q17">
+        <v>0.1472395894653333</v>
+      </c>
+      <c r="R17">
+        <v>1.325156305188</v>
+      </c>
+      <c r="S17">
+        <v>3.403240286660533E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.457855742836063E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.079543</v>
+      </c>
+      <c r="H18">
+        <v>3.238629</v>
+      </c>
+      <c r="I18">
+        <v>0.0005299800219751696</v>
+      </c>
+      <c r="J18">
+        <v>0.0005351562138082184</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>20.66750966666667</v>
+      </c>
+      <c r="N18">
+        <v>62.002529</v>
+      </c>
+      <c r="O18">
+        <v>0.9730532601655376</v>
+      </c>
+      <c r="P18">
+        <v>0.9791061892573283</v>
+      </c>
+      <c r="Q18">
+        <v>22.31146538808233</v>
+      </c>
+      <c r="R18">
+        <v>200.803188492741</v>
+      </c>
+      <c r="S18">
+        <v>0.000515698788205542</v>
+      </c>
+      <c r="T18">
+        <v>0.0005239747611591447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.079543</v>
+      </c>
+      <c r="H19">
+        <v>3.238629</v>
+      </c>
+      <c r="I19">
+        <v>0.0005299800219751696</v>
+      </c>
+      <c r="J19">
+        <v>0.0005351562138082184</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02296733333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.068902</v>
+      </c>
+      <c r="O19">
+        <v>0.001081331952313201</v>
+      </c>
+      <c r="P19">
+        <v>0.001088058434716565</v>
+      </c>
+      <c r="Q19">
+        <v>0.02479422392866667</v>
+      </c>
+      <c r="R19">
+        <v>0.223148015358</v>
+      </c>
+      <c r="S19">
+        <v>5.730843318494035E-07</v>
+      </c>
+      <c r="T19">
+        <v>5.822812323250135E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.079543</v>
+      </c>
+      <c r="H20">
+        <v>3.238629</v>
+      </c>
+      <c r="I20">
+        <v>0.0005299800219751696</v>
+      </c>
+      <c r="J20">
+        <v>0.0005351562138082184</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01906633333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.057199</v>
+      </c>
+      <c r="O20">
+        <v>0.0008976677939735101</v>
+      </c>
+      <c r="P20">
+        <v>0.0009032517837994949</v>
+      </c>
+      <c r="Q20">
+        <v>0.02058292668566667</v>
+      </c>
+      <c r="R20">
+        <v>0.185246340171</v>
+      </c>
+      <c r="S20">
+        <v>4.757459971764829E-07</v>
+      </c>
+      <c r="T20">
+        <v>4.833808047336571E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.079543</v>
+      </c>
+      <c r="H21">
+        <v>3.238629</v>
+      </c>
+      <c r="I21">
+        <v>0.0005299800219751696</v>
+      </c>
+      <c r="J21">
+        <v>0.0005351562138082184</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3939205</v>
+      </c>
+      <c r="N21">
+        <v>0.787841</v>
+      </c>
+      <c r="O21">
+        <v>0.01854628994751353</v>
+      </c>
+      <c r="P21">
+        <v>0.01244110541443693</v>
+      </c>
+      <c r="Q21">
+        <v>0.4252541183315</v>
+      </c>
+      <c r="R21">
+        <v>2.551524709989</v>
+      </c>
+      <c r="S21">
+        <v>9.829163153941085E-06</v>
+      </c>
+      <c r="T21">
+        <v>6.657934869178992E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H22">
+        <v>118.211979</v>
+      </c>
+      <c r="I22">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J22">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1363906666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.409172</v>
+      </c>
+      <c r="O22">
+        <v>0.006421450140662058</v>
+      </c>
+      <c r="P22">
+        <v>0.006461395109718823</v>
+      </c>
+      <c r="Q22">
+        <v>8.061505311898001</v>
+      </c>
+      <c r="R22">
+        <v>48.369031871388</v>
+      </c>
+      <c r="S22">
+        <v>0.0001863305904899893</v>
+      </c>
+      <c r="T22">
+        <v>0.000126213891883623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H23">
+        <v>118.211979</v>
+      </c>
+      <c r="I23">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J23">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>20.66750966666667</v>
+      </c>
+      <c r="N23">
+        <v>62.002529</v>
+      </c>
+      <c r="O23">
+        <v>0.9730532601655376</v>
+      </c>
+      <c r="P23">
+        <v>0.9791061892573283</v>
+      </c>
+      <c r="Q23">
+        <v>1221.573609349149</v>
+      </c>
+      <c r="R23">
+        <v>7329.441656094892</v>
+      </c>
+      <c r="S23">
+        <v>0.02823499125170512</v>
+      </c>
+      <c r="T23">
+        <v>0.01912540567711672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H24">
+        <v>118.211979</v>
+      </c>
+      <c r="I24">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J24">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02296733333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.068902</v>
+      </c>
+      <c r="O24">
+        <v>0.001081331952313201</v>
+      </c>
+      <c r="P24">
+        <v>0.001088058434716565</v>
+      </c>
+      <c r="Q24">
+        <v>1.357506962843</v>
+      </c>
+      <c r="R24">
+        <v>8.145041777058001</v>
+      </c>
+      <c r="S24">
+        <v>3.137690346832443E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.125362825062662E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H25">
+        <v>118.211979</v>
+      </c>
+      <c r="I25">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J25">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.01906633333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.057199</v>
+      </c>
+      <c r="O25">
+        <v>0.0008976677939735101</v>
+      </c>
+      <c r="P25">
+        <v>0.0009032517837994949</v>
+      </c>
+      <c r="Q25">
+        <v>1.1269344978035</v>
+      </c>
+      <c r="R25">
+        <v>6.761606986821</v>
+      </c>
+      <c r="S25">
+        <v>2.604753855453672E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.764370094202769E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H26">
+        <v>118.211979</v>
+      </c>
+      <c r="I26">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J26">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3939205</v>
+      </c>
+      <c r="N26">
+        <v>0.787841</v>
+      </c>
+      <c r="O26">
+        <v>0.01854628994751353</v>
+      </c>
+      <c r="P26">
+        <v>0.01244110541443693</v>
+      </c>
+      <c r="Q26">
+        <v>23.28306093683475</v>
+      </c>
+      <c r="R26">
+        <v>93.13224374733902</v>
+      </c>
+      <c r="S26">
+        <v>0.0005381558809335328</v>
+      </c>
+      <c r="T26">
+        <v>0.0002430187764448336</v>
       </c>
     </row>
   </sheetData>
